--- a/documents/Races.xlsx
+++ b/documents/Races.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr2 xr6">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flowe\Documents\Vidja game creation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flowe\Documents\Vidja game creation\0150gameserver.github.io\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6804939711892F9A2BE27B4D2FACEDCC3B0CF0F7" xr6:coauthVersionLast="8" xr6:coauthVersionMax="8"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3255" windowHeight="6120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3255" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +86,6 @@
     <t>Early medieval</t>
   </si>
   <si>
-    <t>Gothic</t>
-  </si>
-  <si>
     <t>Warm</t>
   </si>
   <si>
@@ -129,9 +125,6 @@
     <t>Roman</t>
   </si>
   <si>
-    <t>Italian</t>
-  </si>
-  <si>
     <t>Cold</t>
   </si>
   <si>
@@ -207,9 +200,6 @@
     <t>Scientific</t>
   </si>
   <si>
-    <t>Dinosaurs (too warhammer?)</t>
-  </si>
-  <si>
     <t>Bronze age</t>
   </si>
   <si>
@@ -259,13 +249,22 @@
   </si>
   <si>
     <t>Humans, insectoids</t>
+  </si>
+  <si>
+    <t>Element/Emotion, Primal/Civilised, God/Champion</t>
+  </si>
+  <si>
+    <t>Italian gothic</t>
+  </si>
+  <si>
+    <t>Italian roman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,22 +608,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -635,7 +634,7 @@
     <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -699,139 +698,139 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
       </c>
       <c r="M3" t="s">
         <v>15</v>
       </c>
       <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
+      <c r="C4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>47</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
         <v>48</v>
       </c>
-      <c r="L4" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -843,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
@@ -852,115 +851,115 @@
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="O5" t="s">
+      <c r="C6" t="s">
         <v>56</v>
       </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="I6" t="s">
+      <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="J6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="N6" t="s">
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" t="s">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
-        <v>40</v>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>75</v>
-      </c>
-      <c r="L7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
